--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H2">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I2">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J2">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N2">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O2">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P2">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q2">
-        <v>36.82709785320977</v>
+        <v>3.160976126143</v>
       </c>
       <c r="R2">
-        <v>331.443880678888</v>
+        <v>28.448785135287</v>
       </c>
       <c r="S2">
-        <v>0.02103882234515578</v>
+        <v>0.002388101281328769</v>
       </c>
       <c r="T2">
-        <v>0.02103882234515578</v>
+        <v>0.002388101281328769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H3">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I3">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J3">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>255.358833</v>
       </c>
       <c r="O3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q3">
-        <v>78.43420325924534</v>
+        <v>13.56996699804567</v>
       </c>
       <c r="R3">
-        <v>705.907829333208</v>
+        <v>122.129702982411</v>
       </c>
       <c r="S3">
-        <v>0.0448083982814105</v>
+        <v>0.01025204059834646</v>
       </c>
       <c r="T3">
-        <v>0.0448083982814105</v>
+        <v>0.01025204059834646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H4">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I4">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J4">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N4">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q4">
-        <v>25.50614943471556</v>
+        <v>3.816369522156111</v>
       </c>
       <c r="R4">
-        <v>229.55534491244</v>
+        <v>34.347325699405</v>
       </c>
       <c r="S4">
-        <v>0.01457131780529932</v>
+        <v>0.002883247636863919</v>
       </c>
       <c r="T4">
-        <v>0.01457131780529933</v>
+        <v>0.002883247636863919</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.739441</v>
       </c>
       <c r="I5">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J5">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N5">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O5">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P5">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q5">
-        <v>76.46100072122033</v>
+        <v>37.93327990098901</v>
       </c>
       <c r="R5">
-        <v>688.149006490983</v>
+        <v>341.399519108901</v>
       </c>
       <c r="S5">
-        <v>0.04368113438964281</v>
+        <v>0.02865839877351118</v>
       </c>
       <c r="T5">
-        <v>0.04368113438964281</v>
+        <v>0.02865839877351118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.739441</v>
       </c>
       <c r="I6">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J6">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>255.358833</v>
       </c>
       <c r="O6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q6">
         <v>162.846328425817</v>
@@ -818,10 +818,10 @@
         <v>1465.616955832353</v>
       </c>
       <c r="S6">
-        <v>0.09303190240425217</v>
+        <v>0.1230295674671559</v>
       </c>
       <c r="T6">
-        <v>0.09303190240425217</v>
+        <v>0.1230295674671558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.739441</v>
       </c>
       <c r="I7">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J7">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N7">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q7">
-        <v>52.95626926935167</v>
+        <v>45.79832542620167</v>
       </c>
       <c r="R7">
-        <v>476.606423424165</v>
+        <v>412.184928835815</v>
       </c>
       <c r="S7">
-        <v>0.03025319957768587</v>
+        <v>0.03460040040431368</v>
       </c>
       <c r="T7">
-        <v>0.03025319957768588</v>
+        <v>0.03460040040431368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H8">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I8">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J8">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N8">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O8">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P8">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q8">
-        <v>344.6547908553676</v>
+        <v>162.532414731544</v>
       </c>
       <c r="R8">
-        <v>3101.893117698309</v>
+        <v>1462.791732583896</v>
       </c>
       <c r="S8">
-        <v>0.1968966152075137</v>
+        <v>0.1227924072781497</v>
       </c>
       <c r="T8">
-        <v>0.1968966152075138</v>
+        <v>0.1227924072781496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H9">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I9">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J9">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>255.358833</v>
       </c>
       <c r="O9">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P9">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q9">
-        <v>734.044372108091</v>
+        <v>697.7463340448987</v>
       </c>
       <c r="R9">
-        <v>6606.399348972819</v>
+        <v>6279.717006404087</v>
       </c>
       <c r="S9">
-        <v>0.4193496104363145</v>
+        <v>0.5271437834009418</v>
       </c>
       <c r="T9">
-        <v>0.4193496104363145</v>
+        <v>0.5271437834009417</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H10">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I10">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J10">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N10">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O10">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P10">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q10">
-        <v>238.7051142065883</v>
+        <v>196.2317110888044</v>
       </c>
       <c r="R10">
-        <v>2148.346027859295</v>
+        <v>1766.08539979924</v>
       </c>
       <c r="S10">
-        <v>0.1363689995527253</v>
+        <v>0.1482520531593887</v>
       </c>
       <c r="T10">
-        <v>0.1363689995527253</v>
+        <v>0.1482520531593887</v>
       </c>
     </row>
   </sheetData>
